--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Mag</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N2">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O2">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P2">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q2">
-        <v>0.000380278</v>
+        <v>0.01412307750933333</v>
       </c>
       <c r="R2">
-        <v>0.003422502</v>
+        <v>0.127107697584</v>
       </c>
       <c r="S2">
-        <v>0.0003248950371064108</v>
+        <v>0.01501951777257973</v>
       </c>
       <c r="T2">
-        <v>0.0004103400549236224</v>
+        <v>0.0161206368288752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N3">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O3">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P3">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q3">
-        <v>0.02775015325333333</v>
+        <v>0.000298592518</v>
       </c>
       <c r="R3">
-        <v>0.24975137928</v>
+        <v>0.001791555108</v>
       </c>
       <c r="S3">
-        <v>0.02370867384111182</v>
+        <v>0.000317545211225852</v>
       </c>
       <c r="T3">
-        <v>0.02994388160795981</v>
+        <v>0.0002272168389793866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N4">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O4">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P4">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q4">
-        <v>0.06897727590000001</v>
+        <v>0.01135289786711111</v>
       </c>
       <c r="R4">
-        <v>0.4138636554</v>
+        <v>0.102176080804</v>
       </c>
       <c r="S4">
-        <v>0.0589315569478898</v>
+        <v>0.01207350530878782</v>
       </c>
       <c r="T4">
-        <v>0.04962008352010522</v>
+        <v>0.01295864469695523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>1.792463</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2176213333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N5">
-        <v>0.652864</v>
+        <v>1.628688</v>
       </c>
       <c r="O5">
-        <v>0.1374048870135541</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P5">
-        <v>0.1726709884841751</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q5">
-        <v>0.01546852437333333</v>
+        <v>0.3243736642826666</v>
       </c>
       <c r="R5">
-        <v>0.13921671936</v>
+        <v>2.919362978544</v>
       </c>
       <c r="S5">
-        <v>0.01321571797541681</v>
+        <v>0.3449627754595747</v>
       </c>
       <c r="T5">
-        <v>0.01669135511636485</v>
+        <v>0.3702528740847497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H6">
         <v>1.792463</v>
       </c>
       <c r="I6">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J6">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.00535</v>
+        <v>0.011478</v>
       </c>
       <c r="N6">
-        <v>0.01605</v>
+        <v>0.022956</v>
       </c>
       <c r="O6">
-        <v>0.003377959937395142</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P6">
-        <v>0.004244941312694542</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q6">
-        <v>0.003196559016666667</v>
+        <v>0.006857963438</v>
       </c>
       <c r="R6">
-        <v>0.02876903115</v>
+        <v>0.041147780628</v>
       </c>
       <c r="S6">
-        <v>0.002731018255941045</v>
+        <v>0.00729326194469106</v>
       </c>
       <c r="T6">
-        <v>0.003449256077042585</v>
+        <v>0.005218633020866806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,170 +850,170 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3904073333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N7">
-        <v>1.171222</v>
+        <v>1.309228</v>
       </c>
       <c r="O7">
-        <v>0.2465009964981815</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P7">
-        <v>0.3097675173916964</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q7">
-        <v>0.2332635666428889</v>
+        <v>0.2607491942848889</v>
       </c>
       <c r="R7">
-        <v>2.099372099786</v>
+        <v>2.346742748564</v>
       </c>
       <c r="S7">
-        <v>0.1992915055302045</v>
+        <v>0.2772998417065687</v>
       </c>
       <c r="T7">
-        <v>0.2517037134620543</v>
+        <v>0.2976293985295089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02748066666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.082442</v>
+      </c>
+      <c r="I8">
+        <v>0.02895560231126412</v>
+      </c>
+      <c r="J8">
+        <v>0.03095839906451124</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5974876666666668</v>
-      </c>
-      <c r="H8">
-        <v>1.792463</v>
-      </c>
-      <c r="I8">
-        <v>0.8084815410946006</v>
-      </c>
-      <c r="J8">
-        <v>0.8125568348206719</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9704175</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N8">
-        <v>1.940835</v>
+        <v>1.628688</v>
       </c>
       <c r="O8">
-        <v>0.6127161565508693</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P8">
-        <v>0.5133165528114338</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q8">
-        <v>0.5798124877675002</v>
+        <v>0.01491914401066667</v>
       </c>
       <c r="R8">
-        <v>3.478874926605001</v>
+        <v>0.134272296096</v>
       </c>
       <c r="S8">
-        <v>0.4953697025018073</v>
+        <v>0.01586611335042244</v>
       </c>
       <c r="T8">
-        <v>0.4170988734135169</v>
+        <v>0.01702929848219737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H9">
-        <v>1.792463</v>
+        <v>0.082442</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.2176213333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N9">
-        <v>0.652864</v>
+        <v>0.022956</v>
       </c>
       <c r="O9">
-        <v>0.1374048870135541</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P9">
-        <v>0.1726709884841751</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q9">
-        <v>0.1300260626702222</v>
+        <v>0.000315423092</v>
       </c>
       <c r="R9">
-        <v>1.170234564032</v>
+        <v>0.001892538552</v>
       </c>
       <c r="S9">
-        <v>0.1110893148066476</v>
+        <v>0.0003354440795956293</v>
       </c>
       <c r="T9">
-        <v>0.140304991868058</v>
+        <v>0.0002400242256081722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,75 +1021,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02748066666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.082442</v>
+      </c>
+      <c r="I10">
+        <v>0.02895560231126412</v>
+      </c>
+      <c r="J10">
+        <v>0.03095839906451124</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.0111195</v>
-      </c>
-      <c r="H10">
-        <v>0.022239</v>
-      </c>
-      <c r="I10">
-        <v>0.01504618588422982</v>
-      </c>
-      <c r="J10">
-        <v>0.01008135255766893</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.00535</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N10">
-        <v>0.01605</v>
+        <v>1.309228</v>
       </c>
       <c r="O10">
-        <v>0.003377959937395142</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P10">
-        <v>0.004244941312694542</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q10">
-        <v>5.9489325E-05</v>
+        <v>0.01199281941955556</v>
       </c>
       <c r="R10">
-        <v>0.00035693595</v>
+        <v>0.107935374776</v>
       </c>
       <c r="S10">
-        <v>5.082541312752863E-05</v>
+        <v>0.01275404488124605</v>
       </c>
       <c r="T10">
-        <v>4.279474995988763E-05</v>
+        <v>0.0136890763567057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0111195</v>
+        <v>0.1841935</v>
       </c>
       <c r="H11">
-        <v>0.022239</v>
+        <v>0.368387</v>
       </c>
       <c r="I11">
-        <v>0.01504618588422982</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J11">
-        <v>0.01008135255766893</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3904073333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N11">
-        <v>1.171222</v>
+        <v>1.628688</v>
       </c>
       <c r="O11">
-        <v>0.2465009964981815</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P11">
-        <v>0.3097675173916964</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q11">
-        <v>0.004341134343</v>
+        <v>0.09999791437599999</v>
       </c>
       <c r="R11">
-        <v>0.026046806058</v>
+        <v>0.599987486256</v>
       </c>
       <c r="S11">
-        <v>0.003708899813959522</v>
+        <v>0.1063451256426713</v>
       </c>
       <c r="T11">
-        <v>0.003122875553739533</v>
+        <v>0.07609437155771624</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,60 +1160,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.1841935</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.368387</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.9704175</v>
+        <v>0.011478</v>
       </c>
       <c r="N12">
-        <v>1.940835</v>
+        <v>0.022956</v>
       </c>
       <c r="O12">
-        <v>0.6127161565508693</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P12">
-        <v>0.5133165528114338</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q12">
-        <v>0.01079055739125</v>
+        <v>0.002114172993</v>
       </c>
       <c r="R12">
-        <v>0.04316222956500001</v>
+        <v>0.008456691972</v>
       </c>
       <c r="S12">
-        <v>0.009219041185735237</v>
+        <v>0.002248366818187242</v>
       </c>
       <c r="T12">
-        <v>0.005174925142579346</v>
+        <v>0.001072533470793015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.1841935</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.368387</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,276 +1240,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2176213333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N13">
-        <v>0.652864</v>
+        <v>1.309228</v>
       </c>
       <c r="O13">
-        <v>0.1374048870135541</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P13">
-        <v>0.1726709884841751</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q13">
-        <v>0.002419840416</v>
+        <v>0.08038376253933334</v>
       </c>
       <c r="R13">
-        <v>0.014519042496</v>
+        <v>0.4823025752360001</v>
       </c>
       <c r="S13">
-        <v>0.00206741947140753</v>
+        <v>0.08548599618521364</v>
       </c>
       <c r="T13">
-        <v>0.001740757111390161</v>
+        <v>0.0611687946898152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.113886</v>
+      </c>
+      <c r="H14">
+        <v>0.341658</v>
+      </c>
+      <c r="I14">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J14">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.178012</v>
-      </c>
-      <c r="I14">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J14">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N14">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O14">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P14">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q14">
-        <v>0.0003174547333333333</v>
+        <v>0.06182825385599999</v>
       </c>
       <c r="R14">
-        <v>0.0028570926</v>
+        <v>0.556454284704</v>
       </c>
       <c r="S14">
-        <v>0.0002712212312201576</v>
+        <v>0.06575270560004159</v>
       </c>
       <c r="T14">
-        <v>0.000342550430768448</v>
+        <v>0.07057320371692327</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05933733333333333</v>
+        <v>0.113886</v>
       </c>
       <c r="H15">
-        <v>0.178012</v>
+        <v>0.341658</v>
       </c>
       <c r="I15">
-        <v>0.08029142921964472</v>
+        <v>0.1199984616392358</v>
       </c>
       <c r="J15">
-        <v>0.08069615232230591</v>
+        <v>0.1282984972172289</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N15">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O15">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P15">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q15">
-        <v>0.02316573007377778</v>
+        <v>0.001307183508</v>
       </c>
       <c r="R15">
-        <v>0.208491570664</v>
+        <v>0.007843101048000001</v>
       </c>
       <c r="S15">
-        <v>0.01979191731290563</v>
+        <v>0.001390154937367889</v>
       </c>
       <c r="T15">
-        <v>0.02499704676794288</v>
+        <v>0.0009947138215089023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05933733333333333</v>
+        <v>0.113886</v>
       </c>
       <c r="H16">
-        <v>0.178012</v>
+        <v>0.341658</v>
       </c>
       <c r="I16">
-        <v>0.08029142921964472</v>
+        <v>0.1199984616392358</v>
       </c>
       <c r="J16">
-        <v>0.08069615232230591</v>
+        <v>0.1282984972172289</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N16">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O16">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P16">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q16">
-        <v>0.05758198667</v>
+        <v>0.049700913336</v>
       </c>
       <c r="R16">
-        <v>0.34549192002</v>
+        <v>0.4473082200240001</v>
       </c>
       <c r="S16">
-        <v>0.04919585591543688</v>
+        <v>0.05285560110182629</v>
       </c>
       <c r="T16">
-        <v>0.04142267073523245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.178012</v>
-      </c>
-      <c r="I17">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J17">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.2176213333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.652864</v>
-      </c>
-      <c r="O17">
-        <v>0.1374048870135541</v>
-      </c>
-      <c r="P17">
-        <v>0.1726709884841751</v>
-      </c>
-      <c r="Q17">
-        <v>0.01291306959644444</v>
-      </c>
-      <c r="R17">
-        <v>0.116217626368</v>
-      </c>
-      <c r="S17">
-        <v>0.01103243476008206</v>
-      </c>
-      <c r="T17">
-        <v>0.01393388438836212</v>
+        <v>0.0567305796787967</v>
       </c>
     </row>
   </sheetData>
